--- a/database/industries/urea/kermasha/cost/quarterly.xlsx
+++ b/database/industries/urea/kermasha/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\kermasha\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EDF47C-CFB5-4E4D-9D3A-96B0482674E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A063DA-3B3E-4F18-B98F-41818E6B1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کرماشا-صنایع پتروشیمی کرمانشاه</t>
@@ -34,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -62,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -709,16 +694,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N125"/>
+  <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -727,13 +712,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,13 +724,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -761,13 +736,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -776,13 +746,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -793,13 +758,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -810,13 +770,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -825,13 +780,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -852,23 +802,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -877,163 +812,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>555210</v>
+        <v>6225799</v>
       </c>
       <c r="F10" s="9">
-        <v>610395</v>
+        <v>4676746</v>
       </c>
       <c r="G10" s="9">
-        <v>1795965</v>
+        <v>4076159</v>
       </c>
       <c r="H10" s="9">
-        <v>1777922</v>
+        <v>4442962</v>
       </c>
       <c r="I10" s="9">
-        <v>1568152</v>
-      </c>
-      <c r="J10" s="9">
-        <v>2547726</v>
-      </c>
-      <c r="K10" s="9">
-        <v>6225799</v>
-      </c>
-      <c r="L10" s="9">
-        <v>4676746</v>
-      </c>
-      <c r="M10" s="9">
-        <v>4076159</v>
-      </c>
-      <c r="N10" s="9">
-        <v>4442962</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3547408</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>60592</v>
+        <v>87165</v>
       </c>
       <c r="F11" s="11">
-        <v>48790</v>
+        <v>84844</v>
       </c>
       <c r="G11" s="11">
-        <v>65361</v>
+        <v>170863</v>
       </c>
       <c r="H11" s="11">
-        <v>60847</v>
+        <v>103263</v>
       </c>
       <c r="I11" s="11">
-        <v>101080</v>
-      </c>
-      <c r="J11" s="11">
-        <v>68145</v>
-      </c>
-      <c r="K11" s="11">
-        <v>87165</v>
-      </c>
-      <c r="L11" s="11">
-        <v>84844</v>
-      </c>
-      <c r="M11" s="11">
-        <v>170863</v>
-      </c>
-      <c r="N11" s="11">
-        <v>103263</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>142616</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>588728</v>
+        <v>2145313</v>
       </c>
       <c r="F12" s="9">
-        <v>795874</v>
+        <v>2385930</v>
       </c>
       <c r="G12" s="9">
-        <v>780511</v>
+        <v>2736788</v>
       </c>
       <c r="H12" s="9">
-        <v>1032181</v>
+        <v>2906498</v>
       </c>
       <c r="I12" s="9">
-        <v>1268286</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1441749</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2145313</v>
-      </c>
-      <c r="L12" s="9">
-        <v>2385930</v>
-      </c>
-      <c r="M12" s="9">
-        <v>2736788</v>
-      </c>
-      <c r="N12" s="9">
-        <v>2906498</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2400929</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1204530</v>
+        <v>8458277</v>
       </c>
       <c r="F13" s="13">
-        <v>1455059</v>
+        <v>7147520</v>
       </c>
       <c r="G13" s="13">
-        <v>2641837</v>
+        <v>6983810</v>
       </c>
       <c r="H13" s="13">
-        <v>2870950</v>
+        <v>7452723</v>
       </c>
       <c r="I13" s="13">
-        <v>2937518</v>
-      </c>
-      <c r="J13" s="13">
-        <v>4057620</v>
-      </c>
-      <c r="K13" s="13">
-        <v>8458277</v>
-      </c>
-      <c r="L13" s="13">
-        <v>7147520</v>
-      </c>
-      <c r="M13" s="13">
-        <v>6983810</v>
-      </c>
-      <c r="N13" s="13">
-        <v>7452723</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6090953</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1041,73 +911,43 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-11324</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>-3002</v>
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-11324</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1204530</v>
+        <v>8458277</v>
       </c>
       <c r="F15" s="13">
-        <v>1455059</v>
+        <v>7136196</v>
       </c>
       <c r="G15" s="13">
-        <v>2641837</v>
+        <v>6983810</v>
       </c>
       <c r="H15" s="13">
-        <v>2867948</v>
+        <v>7452723</v>
       </c>
       <c r="I15" s="13">
-        <v>2937518</v>
-      </c>
-      <c r="J15" s="13">
-        <v>4057620</v>
-      </c>
-      <c r="K15" s="13">
-        <v>8458277</v>
-      </c>
-      <c r="L15" s="13">
-        <v>7136196</v>
-      </c>
-      <c r="M15" s="13">
-        <v>6983810</v>
-      </c>
-      <c r="N15" s="13">
-        <v>7452723</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6090953</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1126,25 +966,10 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1163,173 +988,98 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1204530</v>
+        <v>8458277</v>
       </c>
       <c r="F18" s="15">
-        <v>1455059</v>
+        <v>7136196</v>
       </c>
       <c r="G18" s="15">
-        <v>2641837</v>
+        <v>6983810</v>
       </c>
       <c r="H18" s="15">
-        <v>2867948</v>
+        <v>7452723</v>
       </c>
       <c r="I18" s="15">
-        <v>2937518</v>
-      </c>
-      <c r="J18" s="15">
-        <v>4057620</v>
-      </c>
-      <c r="K18" s="15">
-        <v>8458277</v>
-      </c>
-      <c r="L18" s="15">
-        <v>7136196</v>
-      </c>
-      <c r="M18" s="15">
-        <v>6983810</v>
-      </c>
-      <c r="N18" s="15">
-        <v>7452723</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6090953</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>150146</v>
+        <v>1670707</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>4258712</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1850267</v>
       </c>
       <c r="H19" s="11">
-        <v>-1</v>
+        <v>4021311</v>
       </c>
       <c r="I19" s="11">
-        <v>715958</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1850267</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5456933</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-311468</v>
+        <v>-4258712</v>
       </c>
       <c r="F20" s="9">
-        <v>-123906</v>
+        <v>-1850267</v>
       </c>
       <c r="G20" s="9">
-        <v>-410290</v>
+        <v>-4021311</v>
       </c>
       <c r="H20" s="9">
-        <v>129707</v>
+        <v>-5456933</v>
       </c>
       <c r="I20" s="9">
-        <v>-1075401</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-595306</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-2588005</v>
-      </c>
-      <c r="L20" s="9">
-        <v>2408445</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-4021311</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-1435622</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-6116525</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1043208</v>
+        <v>5870272</v>
       </c>
       <c r="F21" s="13">
-        <v>1331153</v>
+        <v>9544641</v>
       </c>
       <c r="G21" s="13">
-        <v>2231547</v>
+        <v>4812766</v>
       </c>
       <c r="H21" s="13">
-        <v>2997654</v>
+        <v>6017101</v>
       </c>
       <c r="I21" s="13">
-        <v>2578075</v>
-      </c>
-      <c r="J21" s="13">
-        <v>3462313</v>
-      </c>
-      <c r="K21" s="13">
-        <v>5870272</v>
-      </c>
-      <c r="L21" s="13">
-        <v>9544641</v>
-      </c>
-      <c r="M21" s="13">
-        <v>4812766</v>
-      </c>
-      <c r="N21" s="13">
-        <v>6017101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5431361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1348,60 +1098,30 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1043208</v>
+        <v>5870272</v>
       </c>
       <c r="F23" s="13">
-        <v>1331153</v>
+        <v>9544641</v>
       </c>
       <c r="G23" s="13">
-        <v>2231547</v>
+        <v>4812766</v>
       </c>
       <c r="H23" s="13">
-        <v>2997654</v>
+        <v>6017101</v>
       </c>
       <c r="I23" s="13">
-        <v>2578075</v>
-      </c>
-      <c r="J23" s="13">
-        <v>3462313</v>
-      </c>
-      <c r="K23" s="13">
-        <v>5870272</v>
-      </c>
-      <c r="L23" s="13">
-        <v>9544641</v>
-      </c>
-      <c r="M23" s="13">
-        <v>4812766</v>
-      </c>
-      <c r="N23" s="13">
-        <v>6017101</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5431361</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1410,13 +1130,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1425,13 +1140,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1440,15 +1150,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1467,23 +1172,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1492,18 +1182,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1521,25 +1206,10 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1558,23 +1228,8 @@
       <c r="I30" s="13">
         <v>0</v>
       </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0</v>
-      </c>
-      <c r="L30" s="13">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13">
-        <v>0</v>
-      </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1583,13 +1238,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1598,13 +1248,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1613,15 +1258,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1640,23 +1280,8 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1665,89 +1290,54 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>78938940</v>
+        <v>77237802</v>
       </c>
       <c r="F36" s="9">
-        <v>76322845</v>
+        <v>55074709</v>
       </c>
       <c r="G36" s="9">
-        <v>76836339</v>
+        <v>81523172</v>
       </c>
       <c r="H36" s="9">
-        <v>61117463</v>
+        <v>79351561</v>
       </c>
       <c r="I36" s="9">
-        <v>77646246</v>
-      </c>
-      <c r="J36" s="9">
-        <v>78933318</v>
-      </c>
-      <c r="K36" s="9">
-        <v>77237802</v>
-      </c>
-      <c r="L36" s="9">
-        <v>55074709</v>
-      </c>
-      <c r="M36" s="9">
-        <v>81523172</v>
-      </c>
-      <c r="N36" s="9">
-        <v>79351561</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>80455854</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>78938940</v>
+        <v>77237802</v>
       </c>
       <c r="F37" s="13">
-        <v>76322845</v>
+        <v>55074709</v>
       </c>
       <c r="G37" s="13">
-        <v>76836339</v>
+        <v>81523172</v>
       </c>
       <c r="H37" s="13">
-        <v>61117463</v>
+        <v>79351561</v>
       </c>
       <c r="I37" s="13">
-        <v>77646246</v>
-      </c>
-      <c r="J37" s="13">
-        <v>78933318</v>
-      </c>
-      <c r="K37" s="13">
-        <v>77237802</v>
-      </c>
-      <c r="L37" s="13">
-        <v>55074709</v>
-      </c>
-      <c r="M37" s="13">
-        <v>81523172</v>
-      </c>
-      <c r="N37" s="13">
-        <v>79351561</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>80455854</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1756,13 +1346,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1771,13 +1356,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1786,15 +1366,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1813,23 +1388,8 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1838,89 +1398,54 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>78938940</v>
+        <v>77237802</v>
       </c>
       <c r="F43" s="9">
-        <v>76322845</v>
+        <v>55074709</v>
       </c>
       <c r="G43" s="9">
-        <v>76836339</v>
+        <v>81523172</v>
       </c>
       <c r="H43" s="9">
-        <v>61117463</v>
+        <v>79351561</v>
       </c>
       <c r="I43" s="9">
-        <v>77646246</v>
-      </c>
-      <c r="J43" s="9">
-        <v>78933318</v>
-      </c>
-      <c r="K43" s="9">
-        <v>77237802</v>
-      </c>
-      <c r="L43" s="9">
-        <v>55074709</v>
-      </c>
-      <c r="M43" s="9">
-        <v>81523172</v>
-      </c>
-      <c r="N43" s="9">
-        <v>79351561</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>80455854</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>78938940</v>
+        <v>77237802</v>
       </c>
       <c r="F44" s="13">
-        <v>76322845</v>
+        <v>55074709</v>
       </c>
       <c r="G44" s="13">
-        <v>76836339</v>
+        <v>81523172</v>
       </c>
       <c r="H44" s="13">
-        <v>61117463</v>
+        <v>79351561</v>
       </c>
       <c r="I44" s="13">
-        <v>77646246</v>
-      </c>
-      <c r="J44" s="13">
-        <v>78933318</v>
-      </c>
-      <c r="K44" s="13">
-        <v>77237802</v>
-      </c>
-      <c r="L44" s="13">
-        <v>55074709</v>
-      </c>
-      <c r="M44" s="13">
-        <v>81523172</v>
-      </c>
-      <c r="N44" s="13">
-        <v>79351561</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+        <v>80455854</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1929,13 +1454,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1944,13 +1464,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1959,15 +1474,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1986,23 +1496,8 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2011,18 +1506,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
@@ -2040,25 +1530,10 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="9">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <v>0</v>
-      </c>
-      <c r="M50" s="9">
-        <v>0</v>
-      </c>
-      <c r="N50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -2077,23 +1552,8 @@
       <c r="I51" s="13">
         <v>0</v>
       </c>
-      <c r="J51" s="13">
-        <v>0</v>
-      </c>
-      <c r="K51" s="13">
-        <v>0</v>
-      </c>
-      <c r="L51" s="13">
-        <v>0</v>
-      </c>
-      <c r="M51" s="13">
-        <v>0</v>
-      </c>
-      <c r="N51" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2102,13 +1562,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2117,13 +1572,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2132,15 +1582,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2159,23 +1604,8 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2184,18 +1614,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -2213,25 +1638,10 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9">
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9">
-        <v>0</v>
-      </c>
-      <c r="N57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2250,23 +1660,8 @@
       <c r="I58" s="13">
         <v>0</v>
       </c>
-      <c r="J58" s="13">
-        <v>0</v>
-      </c>
-      <c r="K58" s="13">
-        <v>0</v>
-      </c>
-      <c r="L58" s="13">
-        <v>0</v>
-      </c>
-      <c r="M58" s="13">
-        <v>0</v>
-      </c>
-      <c r="N58" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2275,13 +1670,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2290,13 +1680,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2305,15 +1690,10 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2332,23 +1712,8 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2357,89 +1722,54 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>555210</v>
+        <v>6225799</v>
       </c>
       <c r="F64" s="9">
-        <v>610395</v>
+        <v>4676746</v>
       </c>
       <c r="G64" s="9">
-        <v>1795965</v>
+        <v>4076159</v>
       </c>
       <c r="H64" s="9">
-        <v>1777922</v>
+        <v>4442962</v>
       </c>
       <c r="I64" s="9">
-        <v>1568152</v>
-      </c>
-      <c r="J64" s="9">
-        <v>2547726</v>
-      </c>
-      <c r="K64" s="9">
-        <v>6225799</v>
-      </c>
-      <c r="L64" s="9">
-        <v>4676746</v>
-      </c>
-      <c r="M64" s="9">
-        <v>4076159</v>
-      </c>
-      <c r="N64" s="9">
-        <v>4442962</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3547408</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>555210</v>
+        <v>6225799</v>
       </c>
       <c r="F65" s="13">
-        <v>610395</v>
+        <v>4676746</v>
       </c>
       <c r="G65" s="13">
-        <v>1795965</v>
+        <v>4076159</v>
       </c>
       <c r="H65" s="13">
-        <v>1777922</v>
+        <v>4442962</v>
       </c>
       <c r="I65" s="13">
-        <v>1568152</v>
-      </c>
-      <c r="J65" s="13">
-        <v>2547726</v>
-      </c>
-      <c r="K65" s="13">
-        <v>6225799</v>
-      </c>
-      <c r="L65" s="13">
-        <v>4676746</v>
-      </c>
-      <c r="M65" s="13">
-        <v>4076159</v>
-      </c>
-      <c r="N65" s="13">
-        <v>4442962</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3547408</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2448,13 +1778,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2463,13 +1788,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2478,15 +1798,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2505,23 +1820,8 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2530,89 +1830,54 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>555210</v>
+        <v>6225799</v>
       </c>
       <c r="F71" s="9">
-        <v>610395</v>
+        <v>4676746</v>
       </c>
       <c r="G71" s="9">
-        <v>1795965</v>
+        <v>4076159</v>
       </c>
       <c r="H71" s="9">
-        <v>1777922</v>
+        <v>4442962</v>
       </c>
       <c r="I71" s="9">
-        <v>1568152</v>
-      </c>
-      <c r="J71" s="9">
-        <v>2547726</v>
-      </c>
-      <c r="K71" s="9">
-        <v>6225799</v>
-      </c>
-      <c r="L71" s="9">
-        <v>4676746</v>
-      </c>
-      <c r="M71" s="9">
-        <v>4076159</v>
-      </c>
-      <c r="N71" s="9">
-        <v>4442962</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3547408</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>555210</v>
+        <v>6225799</v>
       </c>
       <c r="F72" s="13">
-        <v>610395</v>
+        <v>4676746</v>
       </c>
       <c r="G72" s="13">
-        <v>1795965</v>
+        <v>4076159</v>
       </c>
       <c r="H72" s="13">
-        <v>1777922</v>
+        <v>4442962</v>
       </c>
       <c r="I72" s="13">
-        <v>1568152</v>
-      </c>
-      <c r="J72" s="13">
-        <v>2547726</v>
-      </c>
-      <c r="K72" s="13">
-        <v>6225799</v>
-      </c>
-      <c r="L72" s="13">
-        <v>4676746</v>
-      </c>
-      <c r="M72" s="13">
-        <v>4076159</v>
-      </c>
-      <c r="N72" s="13">
-        <v>4442962</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3547408</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2621,13 +1886,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2636,13 +1896,8 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2651,15 +1906,10 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2678,23 +1928,8 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2703,18 +1938,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
@@ -2732,25 +1962,10 @@
       <c r="I78" s="9">
         <v>0</v>
       </c>
-      <c r="J78" s="9">
-        <v>0</v>
-      </c>
-      <c r="K78" s="9">
-        <v>0</v>
-      </c>
-      <c r="L78" s="9">
-        <v>0</v>
-      </c>
-      <c r="M78" s="9">
-        <v>0</v>
-      </c>
-      <c r="N78" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -2769,23 +1984,8 @@
       <c r="I79" s="13">
         <v>0</v>
       </c>
-      <c r="J79" s="13">
-        <v>0</v>
-      </c>
-      <c r="K79" s="13">
-        <v>0</v>
-      </c>
-      <c r="L79" s="13">
-        <v>0</v>
-      </c>
-      <c r="M79" s="13">
-        <v>0</v>
-      </c>
-      <c r="N79" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2794,13 +1994,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2809,13 +2004,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2824,15 +2014,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2851,23 +2036,8 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2876,52 +2046,32 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>7033</v>
+        <v>80606</v>
       </c>
       <c r="F85" s="9">
-        <v>7998</v>
+        <v>84916</v>
       </c>
       <c r="G85" s="9">
-        <v>23374</v>
+        <v>50000</v>
       </c>
       <c r="H85" s="9">
-        <v>29090</v>
+        <v>55991</v>
       </c>
       <c r="I85" s="9">
-        <v>20196</v>
-      </c>
-      <c r="J85" s="9">
-        <v>32277</v>
-      </c>
-      <c r="K85" s="9">
-        <v>80606</v>
-      </c>
-      <c r="L85" s="9">
-        <v>84916</v>
-      </c>
-      <c r="M85" s="9">
-        <v>50000</v>
-      </c>
-      <c r="N85" s="9">
-        <v>55991</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2930,13 +2080,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2945,13 +2090,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2960,15 +2100,10 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2987,23 +2122,8 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3012,52 +2132,32 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>7033</v>
+        <v>80606</v>
       </c>
       <c r="F91" s="9">
-        <v>7998</v>
+        <v>84916</v>
       </c>
       <c r="G91" s="9">
-        <v>23374</v>
+        <v>50000</v>
       </c>
       <c r="H91" s="9">
-        <v>29090</v>
+        <v>55991</v>
       </c>
       <c r="I91" s="9">
-        <v>20196</v>
-      </c>
-      <c r="J91" s="9">
-        <v>32277</v>
-      </c>
-      <c r="K91" s="9">
-        <v>80606</v>
-      </c>
-      <c r="L91" s="9">
-        <v>84916</v>
-      </c>
-      <c r="M91" s="9">
-        <v>50000</v>
-      </c>
-      <c r="N91" s="9">
-        <v>55991</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3066,13 +2166,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3081,13 +2176,8 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3096,15 +2186,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3123,23 +2208,8 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3148,15 +2218,10 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -3175,25 +2240,10 @@
       <c r="I97" s="9">
         <v>0</v>
       </c>
-      <c r="J97" s="9">
-        <v>0</v>
-      </c>
-      <c r="K97" s="9">
-        <v>0</v>
-      </c>
-      <c r="L97" s="9">
-        <v>0</v>
-      </c>
-      <c r="M97" s="9">
-        <v>0</v>
-      </c>
-      <c r="N97" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3212,25 +2262,10 @@
       <c r="I98" s="11">
         <v>0</v>
       </c>
-      <c r="J98" s="11">
-        <v>0</v>
-      </c>
-      <c r="K98" s="11">
-        <v>0</v>
-      </c>
-      <c r="L98" s="11">
-        <v>0</v>
-      </c>
-      <c r="M98" s="11">
-        <v>0</v>
-      </c>
-      <c r="N98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -3249,25 +2284,10 @@
       <c r="I99" s="9">
         <v>0</v>
       </c>
-      <c r="J99" s="9">
-        <v>0</v>
-      </c>
-      <c r="K99" s="9">
-        <v>0</v>
-      </c>
-      <c r="L99" s="9">
-        <v>0</v>
-      </c>
-      <c r="M99" s="9">
-        <v>0</v>
-      </c>
-      <c r="N99" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -3286,173 +2306,98 @@
       <c r="I100" s="11">
         <v>0</v>
       </c>
-      <c r="J100" s="11">
-        <v>0</v>
-      </c>
-      <c r="K100" s="11">
-        <v>0</v>
-      </c>
-      <c r="L100" s="11">
-        <v>0</v>
-      </c>
-      <c r="M100" s="11">
-        <v>0</v>
-      </c>
-      <c r="N100" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>63060</v>
+        <v>180482</v>
       </c>
       <c r="F101" s="9">
-        <v>67239</v>
+        <v>200500</v>
       </c>
       <c r="G101" s="9">
-        <v>90402</v>
+        <v>206043</v>
       </c>
       <c r="H101" s="9">
-        <v>108596</v>
+        <v>216690</v>
       </c>
       <c r="I101" s="9">
-        <v>123735</v>
-      </c>
-      <c r="J101" s="9">
-        <v>184041</v>
-      </c>
-      <c r="K101" s="9">
-        <v>180482</v>
-      </c>
-      <c r="L101" s="9">
-        <v>200500</v>
-      </c>
-      <c r="M101" s="9">
-        <v>206043</v>
-      </c>
-      <c r="N101" s="9">
-        <v>216690</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+        <v>223995</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>91925</v>
+        <v>1228682</v>
       </c>
       <c r="F102" s="11">
-        <v>246664</v>
+        <v>1174965</v>
       </c>
       <c r="G102" s="11">
-        <v>167522</v>
+        <v>1354813</v>
       </c>
       <c r="H102" s="11">
-        <v>157447</v>
+        <v>1462403</v>
       </c>
       <c r="I102" s="11">
-        <v>422353</v>
-      </c>
-      <c r="J102" s="11">
-        <v>613252</v>
-      </c>
-      <c r="K102" s="11">
-        <v>1228682</v>
-      </c>
-      <c r="L102" s="11">
-        <v>1174965</v>
-      </c>
-      <c r="M102" s="11">
-        <v>1354813</v>
-      </c>
-      <c r="N102" s="11">
-        <v>1462403</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1193387</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>97789</v>
+        <v>106332</v>
       </c>
       <c r="F103" s="9">
-        <v>97523</v>
+        <v>111649</v>
       </c>
       <c r="G103" s="9">
-        <v>101292</v>
+        <v>129320</v>
       </c>
       <c r="H103" s="9">
-        <v>103014</v>
+        <v>128420</v>
       </c>
       <c r="I103" s="9">
-        <v>104885</v>
-      </c>
-      <c r="J103" s="9">
-        <v>120476</v>
-      </c>
-      <c r="K103" s="9">
-        <v>106332</v>
-      </c>
-      <c r="L103" s="9">
-        <v>111649</v>
-      </c>
-      <c r="M103" s="9">
-        <v>129320</v>
-      </c>
-      <c r="N103" s="9">
-        <v>128420</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+        <v>121159</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>214156</v>
+        <v>322113</v>
       </c>
       <c r="F104" s="11">
-        <v>177181</v>
+        <v>446266</v>
       </c>
       <c r="G104" s="11">
-        <v>218398</v>
+        <v>650392</v>
       </c>
       <c r="H104" s="11">
-        <v>266739</v>
+        <v>406101</v>
       </c>
       <c r="I104" s="11">
-        <v>365191</v>
-      </c>
-      <c r="J104" s="11">
-        <v>244553</v>
-      </c>
-      <c r="K104" s="11">
-        <v>322113</v>
-      </c>
-      <c r="L104" s="11">
-        <v>446266</v>
-      </c>
-      <c r="M104" s="11">
-        <v>650392</v>
-      </c>
-      <c r="N104" s="11">
-        <v>406101</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+        <v>559413</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -3471,97 +2416,52 @@
       <c r="I105" s="9">
         <v>0</v>
       </c>
-      <c r="J105" s="9">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9">
-        <v>0</v>
-      </c>
-      <c r="L105" s="9">
-        <v>0</v>
-      </c>
-      <c r="M105" s="9">
-        <v>0</v>
-      </c>
-      <c r="N105" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>121798</v>
+        <v>307704</v>
       </c>
       <c r="F106" s="11">
-        <v>207267</v>
+        <v>452550</v>
       </c>
       <c r="G106" s="11">
-        <v>202897</v>
+        <v>396220</v>
       </c>
       <c r="H106" s="11">
-        <v>396385</v>
+        <v>692884</v>
       </c>
       <c r="I106" s="11">
-        <v>252122</v>
-      </c>
-      <c r="J106" s="11">
-        <v>279427</v>
-      </c>
-      <c r="K106" s="11">
-        <v>307704</v>
-      </c>
-      <c r="L106" s="11">
-        <v>452550</v>
-      </c>
-      <c r="M106" s="11">
-        <v>396220</v>
-      </c>
-      <c r="N106" s="11">
-        <v>692884</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+        <v>302975</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>588728</v>
+        <v>2145313</v>
       </c>
       <c r="F107" s="15">
-        <v>795874</v>
+        <v>2385930</v>
       </c>
       <c r="G107" s="15">
-        <v>780511</v>
+        <v>2736788</v>
       </c>
       <c r="H107" s="15">
-        <v>1032181</v>
+        <v>2906498</v>
       </c>
       <c r="I107" s="15">
-        <v>1268286</v>
-      </c>
-      <c r="J107" s="15">
-        <v>1441749</v>
-      </c>
-      <c r="K107" s="15">
-        <v>2145313</v>
-      </c>
-      <c r="L107" s="15">
-        <v>2385930</v>
-      </c>
-      <c r="M107" s="15">
-        <v>2736788</v>
-      </c>
-      <c r="N107" s="15">
-        <v>2906498</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2400929</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3570,13 +2470,8 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3585,13 +2480,8 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3600,15 +2490,10 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3617,13 +2502,8 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3632,18 +2512,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -3651,18 +2526,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3670,18 +2540,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -3689,18 +2554,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -3708,106 +2568,101 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>

--- a/database/industries/urea/kermasha/cost/quarterly.xlsx
+++ b/database/industries/urea/kermasha/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\kermasha\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\kermasha\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A063DA-3B3E-4F18-B98F-41818E6B1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8876B084-0D83-4A73-8AEC-470213CB5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -694,16 +709,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I125"/>
+  <dimension ref="B1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,8 +727,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +744,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,8 +761,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,8 +776,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,8 +793,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,8 +810,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,8 +825,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -802,8 +852,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -812,98 +877,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>610395</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1795965</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1777922</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1568152</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2547726</v>
+      </c>
+      <c r="J10" s="9">
         <v>6225799</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>4676746</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>4076159</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>4442962</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>3547408</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>48790</v>
+      </c>
+      <c r="F11" s="11">
+        <v>65361</v>
+      </c>
+      <c r="G11" s="11">
+        <v>60847</v>
+      </c>
+      <c r="H11" s="11">
+        <v>101080</v>
+      </c>
+      <c r="I11" s="11">
+        <v>68145</v>
+      </c>
+      <c r="J11" s="11">
         <v>87165</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>84844</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>170863</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>103263</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>142616</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>795874</v>
+      </c>
+      <c r="F12" s="9">
+        <v>780511</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1032181</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1268286</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1441749</v>
+      </c>
+      <c r="J12" s="9">
         <v>2145313</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>2385930</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2736788</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>2906498</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2400929</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1455059</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2641837</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2870950</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2937518</v>
+      </c>
+      <c r="I13" s="13">
+        <v>4057620</v>
+      </c>
+      <c r="J13" s="13">
         <v>8458277</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>7147520</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>6983810</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>7452723</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>6090953</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -911,43 +1041,73 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-3002</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>-11324</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1455059</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2641837</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2867948</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2937518</v>
+      </c>
+      <c r="I15" s="13">
+        <v>4057620</v>
+      </c>
+      <c r="J15" s="13">
         <v>8458277</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>7136196</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>6983810</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>7452723</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>6090953</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -966,10 +1126,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -988,98 +1163,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1455059</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2641837</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2867948</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2937518</v>
+      </c>
+      <c r="I18" s="15">
+        <v>4057620</v>
+      </c>
+      <c r="J18" s="15">
         <v>8458277</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>7136196</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>6983810</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>7452723</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>6090953</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>410290</v>
+      </c>
+      <c r="H19" s="11">
+        <v>715958</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1075401</v>
+      </c>
+      <c r="J19" s="11">
         <v>1670707</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>4258712</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1850267</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>4021311</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>5456933</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-123906</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-410290</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-715957</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-1075401</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-1670707</v>
+      </c>
+      <c r="J20" s="9">
         <v>-4258712</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-1850267</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-4021311</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-5456933</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-6116525</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1331153</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2231547</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2997654</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2578075</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3462313</v>
+      </c>
+      <c r="J21" s="13">
         <v>5870272</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>9544641</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>4812766</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>6017101</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>5431361</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1098,30 +1348,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1331153</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2231547</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2997654</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2578075</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3462313</v>
+      </c>
+      <c r="J23" s="13">
         <v>5870272</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>9544641</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>4812766</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>6017101</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>5431361</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1130,8 +1410,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1140,8 +1425,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1150,10 +1440,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1172,8 +1467,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1182,13 +1492,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1206,10 +1521,25 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1228,8 +1558,23 @@
       <c r="I30" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1238,8 +1583,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1248,8 +1598,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1258,10 +1613,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1280,8 +1640,23 @@
       <c r="I34" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1290,54 +1665,89 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>76322845</v>
+      </c>
+      <c r="F36" s="9">
+        <v>76836339</v>
+      </c>
+      <c r="G36" s="9">
+        <v>61117463</v>
+      </c>
+      <c r="H36" s="9">
+        <v>77646246</v>
+      </c>
+      <c r="I36" s="9">
+        <v>78933318</v>
+      </c>
+      <c r="J36" s="9">
         <v>77237802</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>55074709</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>81523172</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>79351561</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>80455854</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>76322845</v>
+      </c>
+      <c r="F37" s="13">
+        <v>76836339</v>
+      </c>
+      <c r="G37" s="13">
+        <v>61117463</v>
+      </c>
+      <c r="H37" s="13">
+        <v>77646246</v>
+      </c>
+      <c r="I37" s="13">
+        <v>78933318</v>
+      </c>
+      <c r="J37" s="13">
         <v>77237802</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>55074709</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>81523172</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>79351561</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>80455854</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1346,8 +1756,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1356,8 +1771,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1366,10 +1786,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1388,8 +1813,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1398,54 +1838,89 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>76322845</v>
+      </c>
+      <c r="F43" s="9">
+        <v>76836339</v>
+      </c>
+      <c r="G43" s="9">
+        <v>61117463</v>
+      </c>
+      <c r="H43" s="9">
+        <v>77646246</v>
+      </c>
+      <c r="I43" s="9">
+        <v>78933318</v>
+      </c>
+      <c r="J43" s="9">
         <v>77237802</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>55074709</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>81523172</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>79351561</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>80455854</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>76322845</v>
+      </c>
+      <c r="F44" s="13">
+        <v>76836339</v>
+      </c>
+      <c r="G44" s="13">
+        <v>61117463</v>
+      </c>
+      <c r="H44" s="13">
+        <v>77646246</v>
+      </c>
+      <c r="I44" s="13">
+        <v>78933318</v>
+      </c>
+      <c r="J44" s="13">
         <v>77237802</v>
       </c>
-      <c r="F44" s="13">
+      <c r="K44" s="13">
         <v>55074709</v>
       </c>
-      <c r="G44" s="13">
+      <c r="L44" s="13">
         <v>81523172</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>79351561</v>
       </c>
-      <c r="I44" s="13">
+      <c r="N44" s="13">
         <v>80455854</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1454,8 +1929,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1464,8 +1944,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1474,10 +1959,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1496,8 +1986,23 @@
       <c r="I48" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1506,13 +2011,18 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
@@ -1530,10 +2040,25 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1552,8 +2077,23 @@
       <c r="I51" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="13">
+        <v>0</v>
+      </c>
+      <c r="K51" s="13">
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
+        <v>0</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1562,8 +2102,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1572,8 +2117,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1582,10 +2132,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1604,8 +2159,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1614,13 +2184,18 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -1638,10 +2213,25 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -1660,8 +2250,23 @@
       <c r="I58" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="13">
+        <v>0</v>
+      </c>
+      <c r="K58" s="13">
+        <v>0</v>
+      </c>
+      <c r="L58" s="13">
+        <v>0</v>
+      </c>
+      <c r="M58" s="13">
+        <v>0</v>
+      </c>
+      <c r="N58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1670,8 +2275,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1680,8 +2290,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1690,10 +2305,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1712,8 +2332,23 @@
       <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1722,54 +2357,89 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>610395</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1795965</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1777922</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1568152</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2547726</v>
+      </c>
+      <c r="J64" s="9">
         <v>6225799</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>4676746</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>4076159</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>4442962</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>3547408</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>610395</v>
+      </c>
+      <c r="F65" s="13">
+        <v>1795965</v>
+      </c>
+      <c r="G65" s="13">
+        <v>1777922</v>
+      </c>
+      <c r="H65" s="13">
+        <v>1568152</v>
+      </c>
+      <c r="I65" s="13">
+        <v>2547726</v>
+      </c>
+      <c r="J65" s="13">
         <v>6225799</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>4676746</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>4076159</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>4442962</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>3547408</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1778,8 +2448,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1788,8 +2463,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1798,10 +2478,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1820,8 +2505,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1830,54 +2530,89 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>610395</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1795965</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1777922</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1568152</v>
+      </c>
+      <c r="I71" s="9">
+        <v>2547726</v>
+      </c>
+      <c r="J71" s="9">
         <v>6225799</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>4676746</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>4076159</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>4442962</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>3547408</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>610395</v>
+      </c>
+      <c r="F72" s="13">
+        <v>1795965</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1777922</v>
+      </c>
+      <c r="H72" s="13">
+        <v>1568152</v>
+      </c>
+      <c r="I72" s="13">
+        <v>2547726</v>
+      </c>
+      <c r="J72" s="13">
         <v>6225799</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>4676746</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>4076159</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>4442962</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>3547408</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1886,8 +2621,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1896,8 +2636,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1906,10 +2651,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1928,8 +2678,23 @@
       <c r="I76" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1938,13 +2703,18 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
@@ -1962,10 +2732,25 @@
       <c r="I78" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -1984,8 +2769,23 @@
       <c r="I79" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="13">
+        <v>0</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0</v>
+      </c>
+      <c r="L79" s="13">
+        <v>0</v>
+      </c>
+      <c r="M79" s="13">
+        <v>0</v>
+      </c>
+      <c r="N79" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1994,8 +2794,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2004,8 +2809,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2014,10 +2824,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2036,8 +2851,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2046,32 +2876,52 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>7998</v>
+      </c>
+      <c r="F85" s="9">
+        <v>23374</v>
+      </c>
+      <c r="G85" s="9">
+        <v>29090</v>
+      </c>
+      <c r="H85" s="9">
+        <v>20196</v>
+      </c>
+      <c r="I85" s="9">
+        <v>32277</v>
+      </c>
+      <c r="J85" s="9">
         <v>80606</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>84916</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>50000</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>55991</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>44091</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2080,8 +2930,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2090,8 +2945,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2100,10 +2960,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2122,8 +2987,23 @@
       <c r="I89" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2132,32 +3012,52 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>7998</v>
+      </c>
+      <c r="F91" s="9">
+        <v>23374</v>
+      </c>
+      <c r="G91" s="9">
+        <v>29090</v>
+      </c>
+      <c r="H91" s="9">
+        <v>20196</v>
+      </c>
+      <c r="I91" s="9">
+        <v>32277</v>
+      </c>
+      <c r="J91" s="9">
         <v>80606</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>84916</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>50000</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>55991</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>44091</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2166,8 +3066,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2176,8 +3081,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2186,10 +3096,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2208,8 +3123,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2218,10 +3148,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2240,10 +3175,25 @@
       <c r="I97" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="9">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9">
+        <v>0</v>
+      </c>
+      <c r="L97" s="9">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9">
+        <v>0</v>
+      </c>
+      <c r="N97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2262,10 +3212,25 @@
       <c r="I98" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
+        <v>0</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2284,10 +3249,25 @@
       <c r="I99" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9">
+        <v>0</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+      <c r="N99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2306,98 +3286,173 @@
       <c r="I100" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11">
+        <v>0</v>
+      </c>
+      <c r="N100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>67239</v>
+      </c>
+      <c r="F101" s="9">
+        <v>90402</v>
+      </c>
+      <c r="G101" s="9">
+        <v>108596</v>
+      </c>
+      <c r="H101" s="9">
+        <v>123735</v>
+      </c>
+      <c r="I101" s="9">
+        <v>184041</v>
+      </c>
+      <c r="J101" s="9">
         <v>180482</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>200500</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>206043</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>216690</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>223995</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>246664</v>
+      </c>
+      <c r="F102" s="11">
+        <v>167522</v>
+      </c>
+      <c r="G102" s="11">
+        <v>157447</v>
+      </c>
+      <c r="H102" s="11">
+        <v>422353</v>
+      </c>
+      <c r="I102" s="11">
+        <v>613252</v>
+      </c>
+      <c r="J102" s="11">
         <v>1228682</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>1174965</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>1354813</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>1462403</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>1193387</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>97523</v>
+      </c>
+      <c r="F103" s="9">
+        <v>101292</v>
+      </c>
+      <c r="G103" s="9">
+        <v>103014</v>
+      </c>
+      <c r="H103" s="9">
+        <v>104885</v>
+      </c>
+      <c r="I103" s="9">
+        <v>120476</v>
+      </c>
+      <c r="J103" s="9">
         <v>106332</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>111649</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>129320</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>128420</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>121159</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>177181</v>
+      </c>
+      <c r="F104" s="11">
+        <v>218398</v>
+      </c>
+      <c r="G104" s="11">
+        <v>266739</v>
+      </c>
+      <c r="H104" s="11">
+        <v>365191</v>
+      </c>
+      <c r="I104" s="11">
+        <v>244553</v>
+      </c>
+      <c r="J104" s="11">
         <v>322113</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>446266</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>650392</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>406101</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>559413</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -2416,52 +3471,97 @@
       <c r="I105" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
+        <v>0</v>
+      </c>
+      <c r="N105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>207267</v>
+      </c>
+      <c r="F106" s="11">
+        <v>202897</v>
+      </c>
+      <c r="G106" s="11">
+        <v>396385</v>
+      </c>
+      <c r="H106" s="11">
+        <v>252122</v>
+      </c>
+      <c r="I106" s="11">
+        <v>279427</v>
+      </c>
+      <c r="J106" s="11">
         <v>307704</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>452550</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>396220</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>692884</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>302975</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>795874</v>
+      </c>
+      <c r="F107" s="15">
+        <v>780511</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1032181</v>
+      </c>
+      <c r="H107" s="15">
+        <v>1268286</v>
+      </c>
+      <c r="I107" s="15">
+        <v>1441749</v>
+      </c>
+      <c r="J107" s="15">
         <v>2145313</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>2385930</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>2736788</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>2906498</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>2400929</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2470,8 +3570,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2480,8 +3585,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2490,10 +3600,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2502,8 +3617,13 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2512,13 +3632,18 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -2526,13 +3651,18 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -2540,13 +3670,18 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -2554,13 +3689,18 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -2568,101 +3708,106 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>

--- a/database/industries/urea/kermasha/cost/quarterly.xlsx
+++ b/database/industries/urea/kermasha/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\kermasha\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\kermasha\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8876B084-0D83-4A73-8AEC-470213CB5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3F2E1-A024-4A2B-A835-288086C2858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -713,12 +713,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -868,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -883,155 +883,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>610395</v>
+        <v>1795965</v>
       </c>
       <c r="F10" s="9">
-        <v>1795965</v>
+        <v>1777922</v>
       </c>
       <c r="G10" s="9">
-        <v>1777922</v>
+        <v>1568152</v>
       </c>
       <c r="H10" s="9">
-        <v>1568152</v>
+        <v>2547726</v>
       </c>
       <c r="I10" s="9">
-        <v>2547726</v>
+        <v>6225799</v>
       </c>
       <c r="J10" s="9">
-        <v>6225799</v>
+        <v>4676746</v>
       </c>
       <c r="K10" s="9">
-        <v>4676746</v>
+        <v>4076159</v>
       </c>
       <c r="L10" s="9">
-        <v>4076159</v>
+        <v>4442962</v>
       </c>
       <c r="M10" s="9">
-        <v>4442962</v>
+        <v>3547408</v>
       </c>
       <c r="N10" s="9">
-        <v>3547408</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1213237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>48790</v>
+        <v>65361</v>
       </c>
       <c r="F11" s="11">
-        <v>65361</v>
+        <v>60847</v>
       </c>
       <c r="G11" s="11">
-        <v>60847</v>
+        <v>101080</v>
       </c>
       <c r="H11" s="11">
-        <v>101080</v>
+        <v>68145</v>
       </c>
       <c r="I11" s="11">
-        <v>68145</v>
+        <v>87165</v>
       </c>
       <c r="J11" s="11">
-        <v>87165</v>
+        <v>84844</v>
       </c>
       <c r="K11" s="11">
-        <v>84844</v>
+        <v>170863</v>
       </c>
       <c r="L11" s="11">
-        <v>170863</v>
+        <v>103263</v>
       </c>
       <c r="M11" s="11">
-        <v>103263</v>
+        <v>142616</v>
       </c>
       <c r="N11" s="11">
-        <v>142616</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>138202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>795874</v>
+        <v>780511</v>
       </c>
       <c r="F12" s="9">
-        <v>780511</v>
+        <v>1032181</v>
       </c>
       <c r="G12" s="9">
-        <v>1032181</v>
+        <v>1268286</v>
       </c>
       <c r="H12" s="9">
-        <v>1268286</v>
+        <v>1441749</v>
       </c>
       <c r="I12" s="9">
-        <v>1441749</v>
+        <v>2145313</v>
       </c>
       <c r="J12" s="9">
-        <v>2145313</v>
+        <v>2385930</v>
       </c>
       <c r="K12" s="9">
-        <v>2385930</v>
+        <v>2736788</v>
       </c>
       <c r="L12" s="9">
-        <v>2736788</v>
+        <v>2906498</v>
       </c>
       <c r="M12" s="9">
-        <v>2906498</v>
+        <v>2400929</v>
       </c>
       <c r="N12" s="9">
-        <v>2400929</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4043189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1455059</v>
+        <v>2641837</v>
       </c>
       <c r="F13" s="13">
-        <v>2641837</v>
+        <v>2870950</v>
       </c>
       <c r="G13" s="13">
-        <v>2870950</v>
+        <v>2937518</v>
       </c>
       <c r="H13" s="13">
-        <v>2937518</v>
+        <v>4057620</v>
       </c>
       <c r="I13" s="13">
-        <v>4057620</v>
+        <v>8458277</v>
       </c>
       <c r="J13" s="13">
-        <v>8458277</v>
+        <v>7147520</v>
       </c>
       <c r="K13" s="13">
-        <v>7147520</v>
+        <v>6983810</v>
       </c>
       <c r="L13" s="13">
-        <v>6983810</v>
+        <v>7452723</v>
       </c>
       <c r="M13" s="13">
-        <v>7452723</v>
+        <v>6090953</v>
       </c>
       <c r="N13" s="13">
-        <v>6090953</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5394628</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-3002</v>
       </c>
       <c r="G14" s="9">
-        <v>-3002</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>-11324</v>
       </c>
       <c r="K14" s="9">
-        <v>-11324</v>
+        <v>0</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1065,47 +1065,47 @@
         <v>0</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-60782</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1455059</v>
+        <v>2641837</v>
       </c>
       <c r="F15" s="13">
-        <v>2641837</v>
+        <v>2867948</v>
       </c>
       <c r="G15" s="13">
-        <v>2867948</v>
+        <v>2937518</v>
       </c>
       <c r="H15" s="13">
-        <v>2937518</v>
+        <v>4057620</v>
       </c>
       <c r="I15" s="13">
-        <v>4057620</v>
+        <v>8458277</v>
       </c>
       <c r="J15" s="13">
-        <v>8458277</v>
+        <v>7136196</v>
       </c>
       <c r="K15" s="13">
-        <v>7136196</v>
+        <v>6983810</v>
       </c>
       <c r="L15" s="13">
-        <v>6983810</v>
+        <v>7452723</v>
       </c>
       <c r="M15" s="13">
-        <v>7452723</v>
+        <v>6090953</v>
       </c>
       <c r="N15" s="13">
-        <v>6090953</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5333846</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1176,47 +1176,47 @@
         <v>0</v>
       </c>
       <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-21058</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1455059</v>
+        <v>2641837</v>
       </c>
       <c r="F18" s="15">
-        <v>2641837</v>
+        <v>2867948</v>
       </c>
       <c r="G18" s="15">
-        <v>2867948</v>
+        <v>2937518</v>
       </c>
       <c r="H18" s="15">
-        <v>2937518</v>
+        <v>4057620</v>
       </c>
       <c r="I18" s="15">
-        <v>4057620</v>
+        <v>8458277</v>
       </c>
       <c r="J18" s="15">
-        <v>8458277</v>
+        <v>7136196</v>
       </c>
       <c r="K18" s="15">
-        <v>7136196</v>
+        <v>6983810</v>
       </c>
       <c r="L18" s="15">
-        <v>6983810</v>
+        <v>7452723</v>
       </c>
       <c r="M18" s="15">
-        <v>7452723</v>
+        <v>6090953</v>
       </c>
       <c r="N18" s="15">
-        <v>6090953</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5312788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1226,108 +1226,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>845664</v>
       </c>
       <c r="G19" s="11">
-        <v>410290</v>
+        <v>715958</v>
       </c>
       <c r="H19" s="11">
-        <v>715958</v>
+        <v>1075401</v>
       </c>
       <c r="I19" s="11">
-        <v>1075401</v>
+        <v>1670707</v>
       </c>
       <c r="J19" s="11">
-        <v>1670707</v>
+        <v>4258712</v>
       </c>
       <c r="K19" s="11">
-        <v>4258712</v>
+        <v>1850267</v>
       </c>
       <c r="L19" s="11">
-        <v>1850267</v>
+        <v>4021311</v>
       </c>
       <c r="M19" s="11">
-        <v>4021311</v>
+        <v>5456933</v>
       </c>
       <c r="N19" s="11">
-        <v>5456933</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6116525</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-123906</v>
+        <v>-410290</v>
       </c>
       <c r="F20" s="9">
-        <v>-410290</v>
+        <v>-715957</v>
       </c>
       <c r="G20" s="9">
-        <v>-715957</v>
+        <v>-1075401</v>
       </c>
       <c r="H20" s="9">
-        <v>-1075401</v>
+        <v>-1670707</v>
       </c>
       <c r="I20" s="9">
-        <v>-1670707</v>
+        <v>-4258712</v>
       </c>
       <c r="J20" s="9">
-        <v>-4258712</v>
+        <v>-1850267</v>
       </c>
       <c r="K20" s="9">
-        <v>-1850267</v>
+        <v>-4021311</v>
       </c>
       <c r="L20" s="9">
-        <v>-4021311</v>
+        <v>-5456933</v>
       </c>
       <c r="M20" s="9">
-        <v>-5456933</v>
+        <v>-6116525</v>
       </c>
       <c r="N20" s="9">
-        <v>-6116525</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2217271</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1331153</v>
+        <v>2231547</v>
       </c>
       <c r="F21" s="13">
-        <v>2231547</v>
+        <v>2997654</v>
       </c>
       <c r="G21" s="13">
-        <v>2997654</v>
+        <v>2578075</v>
       </c>
       <c r="H21" s="13">
-        <v>2578075</v>
+        <v>3462313</v>
       </c>
       <c r="I21" s="13">
-        <v>3462313</v>
+        <v>5870272</v>
       </c>
       <c r="J21" s="13">
-        <v>5870272</v>
+        <v>9544641</v>
       </c>
       <c r="K21" s="13">
-        <v>9544641</v>
+        <v>4812766</v>
       </c>
       <c r="L21" s="13">
-        <v>4812766</v>
+        <v>6017101</v>
       </c>
       <c r="M21" s="13">
-        <v>6017101</v>
+        <v>5431361</v>
       </c>
       <c r="N21" s="13">
-        <v>5431361</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9212042</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1364,44 +1364,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1331153</v>
+        <v>2231547</v>
       </c>
       <c r="F23" s="13">
-        <v>2231547</v>
+        <v>2997654</v>
       </c>
       <c r="G23" s="13">
-        <v>2997654</v>
+        <v>2578075</v>
       </c>
       <c r="H23" s="13">
-        <v>2578075</v>
+        <v>3462313</v>
       </c>
       <c r="I23" s="13">
-        <v>3462313</v>
+        <v>5870272</v>
       </c>
       <c r="J23" s="13">
-        <v>5870272</v>
+        <v>9544641</v>
       </c>
       <c r="K23" s="13">
-        <v>9544641</v>
+        <v>4812766</v>
       </c>
       <c r="L23" s="13">
-        <v>4812766</v>
+        <v>6017101</v>
       </c>
       <c r="M23" s="13">
-        <v>6017101</v>
+        <v>5431361</v>
       </c>
       <c r="N23" s="13">
-        <v>5431361</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9212042</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1416,7 +1416,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1589,7 +1589,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1604,7 +1604,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1671,7 +1671,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
@@ -1680,74 +1680,74 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>76322845</v>
+        <v>76836339</v>
       </c>
       <c r="F36" s="9">
-        <v>76836339</v>
+        <v>61117463</v>
       </c>
       <c r="G36" s="9">
-        <v>61117463</v>
+        <v>77646246</v>
       </c>
       <c r="H36" s="9">
-        <v>77646246</v>
+        <v>78933318</v>
       </c>
       <c r="I36" s="9">
-        <v>78933318</v>
+        <v>77237802</v>
       </c>
       <c r="J36" s="9">
-        <v>77237802</v>
+        <v>55074709</v>
       </c>
       <c r="K36" s="9">
-        <v>55074709</v>
+        <v>81523172</v>
       </c>
       <c r="L36" s="9">
-        <v>81523172</v>
+        <v>79351561</v>
       </c>
       <c r="M36" s="9">
-        <v>79351561</v>
+        <v>80455854</v>
       </c>
       <c r="N36" s="9">
-        <v>80455854</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10261443</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>76322845</v>
+        <v>76836339</v>
       </c>
       <c r="F37" s="13">
-        <v>76836339</v>
+        <v>61117463</v>
       </c>
       <c r="G37" s="13">
-        <v>61117463</v>
+        <v>77646246</v>
       </c>
       <c r="H37" s="13">
-        <v>77646246</v>
+        <v>78933318</v>
       </c>
       <c r="I37" s="13">
-        <v>78933318</v>
+        <v>77237802</v>
       </c>
       <c r="J37" s="13">
-        <v>77237802</v>
+        <v>55074709</v>
       </c>
       <c r="K37" s="13">
-        <v>55074709</v>
+        <v>81523172</v>
       </c>
       <c r="L37" s="13">
-        <v>81523172</v>
+        <v>79351561</v>
       </c>
       <c r="M37" s="13">
-        <v>79351561</v>
+        <v>80455854</v>
       </c>
       <c r="N37" s="13">
-        <v>80455854</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10261443</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1762,7 +1762,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1777,7 +1777,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1792,7 +1792,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1844,7 +1844,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1853,74 +1853,74 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>76322845</v>
+        <v>76836339</v>
       </c>
       <c r="F43" s="9">
-        <v>76836339</v>
+        <v>61117463</v>
       </c>
       <c r="G43" s="9">
-        <v>61117463</v>
+        <v>77646246</v>
       </c>
       <c r="H43" s="9">
-        <v>77646246</v>
+        <v>78933318</v>
       </c>
       <c r="I43" s="9">
-        <v>78933318</v>
+        <v>77237802</v>
       </c>
       <c r="J43" s="9">
-        <v>77237802</v>
+        <v>55074709</v>
       </c>
       <c r="K43" s="9">
-        <v>55074709</v>
+        <v>81523172</v>
       </c>
       <c r="L43" s="9">
-        <v>81523172</v>
+        <v>79351561</v>
       </c>
       <c r="M43" s="9">
-        <v>79351561</v>
+        <v>80455854</v>
       </c>
       <c r="N43" s="9">
-        <v>80455854</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10261443</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>76322845</v>
+        <v>76836339</v>
       </c>
       <c r="F44" s="13">
-        <v>76836339</v>
+        <v>61117463</v>
       </c>
       <c r="G44" s="13">
-        <v>61117463</v>
+        <v>77646246</v>
       </c>
       <c r="H44" s="13">
-        <v>77646246</v>
+        <v>78933318</v>
       </c>
       <c r="I44" s="13">
-        <v>78933318</v>
+        <v>77237802</v>
       </c>
       <c r="J44" s="13">
-        <v>77237802</v>
+        <v>55074709</v>
       </c>
       <c r="K44" s="13">
-        <v>55074709</v>
+        <v>81523172</v>
       </c>
       <c r="L44" s="13">
-        <v>81523172</v>
+        <v>79351561</v>
       </c>
       <c r="M44" s="13">
-        <v>79351561</v>
+        <v>80455854</v>
       </c>
       <c r="N44" s="13">
-        <v>80455854</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10261443</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1935,7 +1935,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1950,7 +1950,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1965,7 +1965,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>33</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2017,7 +2017,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>17</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2108,7 +2108,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2281,7 +2281,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2296,7 +2296,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2311,7 +2311,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2363,7 +2363,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -2372,74 +2372,74 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>610395</v>
+        <v>1795965</v>
       </c>
       <c r="F64" s="9">
-        <v>1795965</v>
+        <v>1777922</v>
       </c>
       <c r="G64" s="9">
-        <v>1777922</v>
+        <v>1568152</v>
       </c>
       <c r="H64" s="9">
-        <v>1568152</v>
+        <v>2547726</v>
       </c>
       <c r="I64" s="9">
-        <v>2547726</v>
+        <v>6225799</v>
       </c>
       <c r="J64" s="9">
-        <v>6225799</v>
+        <v>4676746</v>
       </c>
       <c r="K64" s="9">
-        <v>4676746</v>
+        <v>4076159</v>
       </c>
       <c r="L64" s="9">
-        <v>4076159</v>
+        <v>4442962</v>
       </c>
       <c r="M64" s="9">
-        <v>4442962</v>
+        <v>3547408</v>
       </c>
       <c r="N64" s="9">
-        <v>3547408</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1213237</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>610395</v>
+        <v>1795965</v>
       </c>
       <c r="F65" s="13">
-        <v>1795965</v>
+        <v>1777922</v>
       </c>
       <c r="G65" s="13">
-        <v>1777922</v>
+        <v>1568152</v>
       </c>
       <c r="H65" s="13">
-        <v>1568152</v>
+        <v>2547726</v>
       </c>
       <c r="I65" s="13">
-        <v>2547726</v>
+        <v>6225799</v>
       </c>
       <c r="J65" s="13">
-        <v>6225799</v>
+        <v>4676746</v>
       </c>
       <c r="K65" s="13">
-        <v>4676746</v>
+        <v>4076159</v>
       </c>
       <c r="L65" s="13">
-        <v>4076159</v>
+        <v>4442962</v>
       </c>
       <c r="M65" s="13">
-        <v>4442962</v>
+        <v>3547408</v>
       </c>
       <c r="N65" s="13">
-        <v>3547408</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1213237</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2454,7 +2454,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2484,7 +2484,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>37</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2536,7 +2536,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2545,74 +2545,74 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>610395</v>
+        <v>1795965</v>
       </c>
       <c r="F71" s="9">
-        <v>1795965</v>
+        <v>1777922</v>
       </c>
       <c r="G71" s="9">
-        <v>1777922</v>
+        <v>1568152</v>
       </c>
       <c r="H71" s="9">
-        <v>1568152</v>
+        <v>2547726</v>
       </c>
       <c r="I71" s="9">
-        <v>2547726</v>
+        <v>6225799</v>
       </c>
       <c r="J71" s="9">
-        <v>6225799</v>
+        <v>4676746</v>
       </c>
       <c r="K71" s="9">
-        <v>4676746</v>
+        <v>4076159</v>
       </c>
       <c r="L71" s="9">
-        <v>4076159</v>
+        <v>4442962</v>
       </c>
       <c r="M71" s="9">
-        <v>4442962</v>
+        <v>3547408</v>
       </c>
       <c r="N71" s="9">
-        <v>3547408</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1213237</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>610395</v>
+        <v>1795965</v>
       </c>
       <c r="F72" s="13">
-        <v>1795965</v>
+        <v>1777922</v>
       </c>
       <c r="G72" s="13">
-        <v>1777922</v>
+        <v>1568152</v>
       </c>
       <c r="H72" s="13">
-        <v>1568152</v>
+        <v>2547726</v>
       </c>
       <c r="I72" s="13">
-        <v>2547726</v>
+        <v>6225799</v>
       </c>
       <c r="J72" s="13">
-        <v>6225799</v>
+        <v>4676746</v>
       </c>
       <c r="K72" s="13">
-        <v>4676746</v>
+        <v>4076159</v>
       </c>
       <c r="L72" s="13">
-        <v>4076159</v>
+        <v>4442962</v>
       </c>
       <c r="M72" s="13">
-        <v>4442962</v>
+        <v>3547408</v>
       </c>
       <c r="N72" s="13">
-        <v>3547408</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1213237</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2627,7 +2627,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2642,7 +2642,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2657,7 +2657,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2709,7 +2709,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>29</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2800,7 +2800,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2815,7 +2815,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2830,7 +2830,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>39</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2882,7 +2882,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -2891,37 +2891,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>7998</v>
+        <v>23374</v>
       </c>
       <c r="F85" s="9">
-        <v>23374</v>
+        <v>29090</v>
       </c>
       <c r="G85" s="9">
-        <v>29090</v>
+        <v>20196</v>
       </c>
       <c r="H85" s="9">
-        <v>20196</v>
+        <v>32277</v>
       </c>
       <c r="I85" s="9">
-        <v>32277</v>
+        <v>80606</v>
       </c>
       <c r="J85" s="9">
-        <v>80606</v>
+        <v>84916</v>
       </c>
       <c r="K85" s="9">
-        <v>84916</v>
+        <v>50000</v>
       </c>
       <c r="L85" s="9">
-        <v>50000</v>
+        <v>55991</v>
       </c>
       <c r="M85" s="9">
-        <v>55991</v>
+        <v>44091</v>
       </c>
       <c r="N85" s="9">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>118233</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2936,7 +2936,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2951,7 +2951,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2966,7 +2966,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3018,7 +3018,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>29</v>
       </c>
@@ -3027,37 +3027,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>7998</v>
+        <v>23374</v>
       </c>
       <c r="F91" s="9">
-        <v>23374</v>
+        <v>29090</v>
       </c>
       <c r="G91" s="9">
-        <v>29090</v>
+        <v>20196</v>
       </c>
       <c r="H91" s="9">
-        <v>20196</v>
+        <v>32277</v>
       </c>
       <c r="I91" s="9">
-        <v>32277</v>
+        <v>80606</v>
       </c>
       <c r="J91" s="9">
-        <v>80606</v>
+        <v>84916</v>
       </c>
       <c r="K91" s="9">
-        <v>84916</v>
+        <v>50000</v>
       </c>
       <c r="L91" s="9">
-        <v>50000</v>
+        <v>55991</v>
       </c>
       <c r="M91" s="9">
-        <v>55991</v>
+        <v>44091</v>
       </c>
       <c r="N91" s="9">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>118233</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3072,7 +3072,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3087,7 +3087,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3102,7 +3102,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>42</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3154,7 +3154,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>43</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>44</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>46</v>
       </c>
@@ -3302,155 +3302,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>67239</v>
+        <v>90402</v>
       </c>
       <c r="F101" s="9">
-        <v>90402</v>
+        <v>108596</v>
       </c>
       <c r="G101" s="9">
-        <v>108596</v>
+        <v>123735</v>
       </c>
       <c r="H101" s="9">
-        <v>123735</v>
+        <v>184041</v>
       </c>
       <c r="I101" s="9">
-        <v>184041</v>
+        <v>180482</v>
       </c>
       <c r="J101" s="9">
-        <v>180482</v>
+        <v>200500</v>
       </c>
       <c r="K101" s="9">
-        <v>200500</v>
+        <v>206043</v>
       </c>
       <c r="L101" s="9">
-        <v>206043</v>
+        <v>216690</v>
       </c>
       <c r="M101" s="9">
-        <v>216690</v>
+        <v>223995</v>
       </c>
       <c r="N101" s="9">
-        <v>223995</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>222688</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>246664</v>
+        <v>167522</v>
       </c>
       <c r="F102" s="11">
-        <v>167522</v>
+        <v>157447</v>
       </c>
       <c r="G102" s="11">
-        <v>157447</v>
+        <v>422353</v>
       </c>
       <c r="H102" s="11">
-        <v>422353</v>
+        <v>613252</v>
       </c>
       <c r="I102" s="11">
-        <v>613252</v>
+        <v>1228682</v>
       </c>
       <c r="J102" s="11">
-        <v>1228682</v>
+        <v>1174965</v>
       </c>
       <c r="K102" s="11">
-        <v>1174965</v>
+        <v>1354813</v>
       </c>
       <c r="L102" s="11">
-        <v>1354813</v>
+        <v>1462403</v>
       </c>
       <c r="M102" s="11">
-        <v>1462403</v>
+        <v>1193387</v>
       </c>
       <c r="N102" s="11">
-        <v>1193387</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2255961</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>97523</v>
+        <v>101292</v>
       </c>
       <c r="F103" s="9">
-        <v>101292</v>
+        <v>103014</v>
       </c>
       <c r="G103" s="9">
-        <v>103014</v>
+        <v>104885</v>
       </c>
       <c r="H103" s="9">
-        <v>104885</v>
+        <v>120476</v>
       </c>
       <c r="I103" s="9">
-        <v>120476</v>
+        <v>106332</v>
       </c>
       <c r="J103" s="9">
-        <v>106332</v>
+        <v>111649</v>
       </c>
       <c r="K103" s="9">
-        <v>111649</v>
+        <v>129320</v>
       </c>
       <c r="L103" s="9">
-        <v>129320</v>
+        <v>128420</v>
       </c>
       <c r="M103" s="9">
-        <v>128420</v>
+        <v>121159</v>
       </c>
       <c r="N103" s="9">
-        <v>121159</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136478</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>177181</v>
+        <v>218398</v>
       </c>
       <c r="F104" s="11">
-        <v>218398</v>
+        <v>266739</v>
       </c>
       <c r="G104" s="11">
-        <v>266739</v>
+        <v>365191</v>
       </c>
       <c r="H104" s="11">
-        <v>365191</v>
+        <v>244553</v>
       </c>
       <c r="I104" s="11">
-        <v>244553</v>
+        <v>322113</v>
       </c>
       <c r="J104" s="11">
-        <v>322113</v>
+        <v>446266</v>
       </c>
       <c r="K104" s="11">
-        <v>446266</v>
+        <v>650392</v>
       </c>
       <c r="L104" s="11">
-        <v>650392</v>
+        <v>406101</v>
       </c>
       <c r="M104" s="11">
-        <v>406101</v>
+        <v>559413</v>
       </c>
       <c r="N104" s="11">
-        <v>559413</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>608190</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>51</v>
       </c>
@@ -3487,81 +3487,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>207267</v>
+        <v>202897</v>
       </c>
       <c r="F106" s="11">
-        <v>202897</v>
+        <v>396385</v>
       </c>
       <c r="G106" s="11">
-        <v>396385</v>
+        <v>252122</v>
       </c>
       <c r="H106" s="11">
-        <v>252122</v>
+        <v>279427</v>
       </c>
       <c r="I106" s="11">
-        <v>279427</v>
+        <v>307704</v>
       </c>
       <c r="J106" s="11">
-        <v>307704</v>
+        <v>452550</v>
       </c>
       <c r="K106" s="11">
-        <v>452550</v>
+        <v>396220</v>
       </c>
       <c r="L106" s="11">
-        <v>396220</v>
+        <v>692884</v>
       </c>
       <c r="M106" s="11">
-        <v>692884</v>
+        <v>302975</v>
       </c>
       <c r="N106" s="11">
-        <v>302975</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>819872</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>795874</v>
+        <v>780511</v>
       </c>
       <c r="F107" s="15">
-        <v>780511</v>
+        <v>1032181</v>
       </c>
       <c r="G107" s="15">
-        <v>1032181</v>
+        <v>1268286</v>
       </c>
       <c r="H107" s="15">
-        <v>1268286</v>
+        <v>1441749</v>
       </c>
       <c r="I107" s="15">
-        <v>1441749</v>
+        <v>2145313</v>
       </c>
       <c r="J107" s="15">
-        <v>2145313</v>
+        <v>2385930</v>
       </c>
       <c r="K107" s="15">
-        <v>2385930</v>
+        <v>2736788</v>
       </c>
       <c r="L107" s="15">
-        <v>2736788</v>
+        <v>2906498</v>
       </c>
       <c r="M107" s="15">
-        <v>2906498</v>
+        <v>2400929</v>
       </c>
       <c r="N107" s="15">
-        <v>2400929</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4043189</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3576,7 +3576,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3606,7 +3606,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>53</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3638,7 +3638,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>54</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>56</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>58</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>60</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>62</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>64</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>66</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>68</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>72</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>74</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>75</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>72</v>
       </c>
